--- a/card.xlsx
+++ b/card.xlsx
@@ -9046,194 +9046,193 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171112"/>
     <row r="171113">
-      <c r="A171113" t="n">
-        <v>0</v>
-      </c>
-      <c r="B171113" t="n">
+      <c r="A171113" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B171113" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="171114">
-      <c r="A171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="B171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="C171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="D171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="E171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="F171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="G171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="H171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="L171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="M171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="N171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="O171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="P171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="R171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="S171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="T171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="U171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="V171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="W171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="X171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG171114" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH171114" t="n">
+      <c r="A171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG171114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH171114" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32726,6 +32725,197 @@
         <v>0</v>
       </c>
     </row>
+    <row r="733864"/>
+    <row r="733865">
+      <c r="A733865" t="n">
+        <v>0</v>
+      </c>
+      <c r="B733865" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="733866">
+      <c r="A733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="B733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="C733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="D733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="E733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="F733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="G733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="H733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="I733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="J733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="K733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="L733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="M733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="N733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="O733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="P733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="R733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="S733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="T733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="U733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="V733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="W733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="X733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG733866" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH733866" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="740675">
       <c r="A740675" s="0" t="n">
         <v>0</v>

--- a/card.xlsx
+++ b/card.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH985890"/>
+  <dimension ref="A1:BZ985890"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24369,6 +24369,317 @@
         <v>0</v>
       </c>
     </row>
+    <row r="528247">
+      <c r="F528247" t="inlineStr">
+        <is>
+          <t>H8</t>
+        </is>
+      </c>
+      <c r="G528247" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="H528247" t="inlineStr">
+        <is>
+          <t>C13</t>
+        </is>
+      </c>
+      <c r="I528247" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="J528247" t="inlineStr">
+        <is>
+          <t>C6</t>
+        </is>
+      </c>
+    </row>
+    <row r="528248">
+      <c r="A528248" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B528248" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528249">
+      <c r="A528249" s="0" t="inlineStr">
+        <is>
+          <t>H9</t>
+        </is>
+      </c>
+      <c r="B528249" s="0" t="inlineStr">
+        <is>
+          <t>S11</t>
+        </is>
+      </c>
+      <c r="C528249" s="0" t="inlineStr">
+        <is>
+          <t>SA14</t>
+        </is>
+      </c>
+      <c r="D528249" s="0" t="inlineStr">
+        <is>
+          <t>HA14</t>
+        </is>
+      </c>
+      <c r="E528249" s="0" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="F528249" s="0" t="inlineStr">
+        <is>
+          <t>D6</t>
+        </is>
+      </c>
+      <c r="G528249" s="0" t="inlineStr">
+        <is>
+          <t>DA14</t>
+        </is>
+      </c>
+      <c r="H528249" s="0" t="inlineStr">
+        <is>
+          <t>C7</t>
+        </is>
+      </c>
+      <c r="I528249" s="0" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="J528249" s="0" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
+      <c r="K528249" s="0" t="inlineStr">
+        <is>
+          <t>D7</t>
+        </is>
+      </c>
+      <c r="L528249" s="0" t="inlineStr">
+        <is>
+          <t>S7</t>
+        </is>
+      </c>
+      <c r="M528249" s="0" t="inlineStr">
+        <is>
+          <t>D4</t>
+        </is>
+      </c>
+      <c r="N528249" s="0" t="inlineStr">
+        <is>
+          <t>S9</t>
+        </is>
+      </c>
+      <c r="O528249" s="0" t="inlineStr">
+        <is>
+          <t>D13</t>
+        </is>
+      </c>
+      <c r="P528249" s="0" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="Q528249" s="0" t="inlineStr">
+        <is>
+          <t>H4</t>
+        </is>
+      </c>
+      <c r="R528249" s="0" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="S528249" s="0" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="T528249" s="0" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
+      <c r="U528249" s="0" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
+      </c>
+      <c r="V528249" s="0" t="inlineStr">
+        <is>
+          <t>H13</t>
+        </is>
+      </c>
+      <c r="W528249" s="0" t="inlineStr">
+        <is>
+          <t>S6</t>
+        </is>
+      </c>
+      <c r="X528249" s="0" t="inlineStr">
+        <is>
+          <t>H10</t>
+        </is>
+      </c>
+      <c r="Y528249" s="0" t="inlineStr">
+        <is>
+          <t>CA14</t>
+        </is>
+      </c>
+      <c r="Z528249" s="0" t="inlineStr">
+        <is>
+          <t>H11</t>
+        </is>
+      </c>
+      <c r="AA528249" s="0" t="inlineStr">
+        <is>
+          <t>C11</t>
+        </is>
+      </c>
+      <c r="AB528249" s="0" t="inlineStr">
+        <is>
+          <t>C8</t>
+        </is>
+      </c>
+      <c r="AC528249" s="0" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AD528249" s="0" t="inlineStr">
+        <is>
+          <t>D12</t>
+        </is>
+      </c>
+      <c r="AE528249" s="0" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="AF528249" s="0" t="inlineStr">
+        <is>
+          <t>C12</t>
+        </is>
+      </c>
+      <c r="AG528249" s="0" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="AH528249" s="0" t="inlineStr">
+        <is>
+          <t>S8</t>
+        </is>
+      </c>
+      <c r="AI528249" s="0" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="AJ528249" s="0" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="AK528249" s="0" t="inlineStr">
+        <is>
+          <t>S13</t>
+        </is>
+      </c>
+      <c r="AL528249" s="0" t="inlineStr">
+        <is>
+          <t>D10</t>
+        </is>
+      </c>
+      <c r="AM528249" s="0" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="AN528249" s="0" t="inlineStr">
+        <is>
+          <t>H12</t>
+        </is>
+      </c>
+      <c r="AO528249" s="0" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="AP528249" s="0" t="inlineStr">
+        <is>
+          <t>C9</t>
+        </is>
+      </c>
+      <c r="AQ528249" s="0" t="inlineStr">
+        <is>
+          <t>C5</t>
+        </is>
+      </c>
+      <c r="AR528249" s="0" t="inlineStr">
+        <is>
+          <t>C10</t>
+        </is>
+      </c>
+      <c r="AS528249" s="0" t="inlineStr">
+        <is>
+          <t>D11</t>
+        </is>
+      </c>
+      <c r="AT528249" s="0" t="inlineStr">
+        <is>
+          <t>H3</t>
+        </is>
+      </c>
+      <c r="AU528249" s="0" t="inlineStr">
+        <is>
+          <t>D8</t>
+        </is>
+      </c>
+      <c r="AV528249" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW528249" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX528249" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY528249" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ528249" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA528249" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB528249" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC528249" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD528249" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE528249" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF528249" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG528249" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH528249" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="528838">
       <c r="F528838" s="0" t="inlineStr">
         <is>
@@ -32725,194 +33036,193 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733864"/>
     <row r="733865">
-      <c r="A733865" t="n">
-        <v>0</v>
-      </c>
-      <c r="B733865" t="n">
+      <c r="A733865" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B733865" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="733866">
-      <c r="A733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="B733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="C733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="D733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="E733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="F733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="G733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="H733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="I733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="J733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="K733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="L733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="M733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="N733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="O733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="P733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="R733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="S733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="T733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="U733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="V733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="W733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="X733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG733866" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH733866" t="n">
+      <c r="A733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG733866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH733866" s="0" t="n">
         <v>0</v>
       </c>
     </row>
